--- a/Gantt.project.planner1.xlsx
+++ b/Gantt.project.planner1.xlsx
@@ -533,6 +533,35 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -641,35 +670,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -982,8 +982,8 @@
   </sheetPr>
   <dimension ref="A2:CN37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:92" ht="19" customHeight="1" x14ac:dyDescent="0.4">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:92" ht="19" customHeight="1" x14ac:dyDescent="0.4">
@@ -1508,10 +1508,14 @@
       <c r="D15" s="16">
         <v>1</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="16">
+        <v>17</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
       <c r="G15" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:92" ht="19" customHeight="1" x14ac:dyDescent="0.4">
@@ -1607,10 +1611,12 @@
       <c r="D20" s="16">
         <v>9</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="16">
+        <v>20</v>
+      </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.4">
@@ -1644,7 +1650,9 @@
       <c r="D22" s="16">
         <v>12</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="16">
+        <v>22</v>
+      </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17">
         <v>0</v>
@@ -1896,38 +1904,38 @@
     <mergeCell ref="A2:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:CN36">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:CN37">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:CN8">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>I$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
